--- a/c6.xlsx
+++ b/c6.xlsx
@@ -1,18 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrdar.DESKTOP-B6LKOPF\PycharmProjects\PythFinder\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0EB308-B809-48B5-82FE-6595DC697E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Create Addons 1.20.1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Create Addons 1.21.1" sheetId="2" r:id="rId5"/>
+    <sheet name="Create Addons 1.20.1" sheetId="1" r:id="rId1"/>
+    <sheet name="Create Addons 1.21.1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="133">
   <si>
     <t>Addon name</t>
   </si>
@@ -400,61 +420,82 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
       </rPr>
       <t>If somebody wants to contact me you can add me on Discord:</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> kotelkotelowy</t>
     </r>
+  </si>
+  <si>
+    <t>Create: Design n' Decor</t>
+  </si>
+  <si>
+    <t>Create: Curios Jetpack</t>
+  </si>
+  <si>
+    <t>Create: Ironworks</t>
+  </si>
+  <si>
+    <t>Petrol's Parts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Inter"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF00FF00"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFF9900"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -462,18 +503,33 @@
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF6AA84F"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -481,7 +537,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -491,74 +547,69 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -748,24 +799,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.25"/>
-    <col customWidth="1" min="2" max="2" width="12.63"/>
+    <col min="1" max="1" width="33.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,15 +829,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -789,7 +845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -797,7 +853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -805,7 +861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -813,7 +869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -821,7 +877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -829,7 +885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -837,7 +893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -845,7 +901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -853,7 +909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -861,7 +917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -869,7 +925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -877,7 +933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -885,7 +941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -893,7 +949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
@@ -901,7 +957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
@@ -909,7 +965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
@@ -917,7 +973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
@@ -925,7 +981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
@@ -933,7 +989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
@@ -941,7 +997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
@@ -949,7 +1005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
@@ -957,7 +1013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
@@ -965,7 +1021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
@@ -973,7 +1029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
@@ -981,7 +1037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
@@ -989,7 +1045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
@@ -997,7 +1053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
@@ -1005,7 +1061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
@@ -1013,7 +1069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
@@ -1021,7 +1077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
@@ -1029,7 +1085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
@@ -1037,7 +1093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
@@ -1045,7 +1101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
@@ -1053,7 +1109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
@@ -1061,7 +1117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
         <v>40</v>
       </c>
@@ -1069,7 +1125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
         <v>41</v>
       </c>
@@ -1077,7 +1133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
         <v>42</v>
       </c>
@@ -1085,7 +1141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
         <v>43</v>
       </c>
@@ -1093,7 +1149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
         <v>44</v>
       </c>
@@ -1101,7 +1157,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
         <v>46</v>
       </c>
@@ -1109,15 +1165,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
         <v>48</v>
       </c>
@@ -1125,7 +1181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
         <v>49</v>
       </c>
@@ -1133,7 +1189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
         <v>50</v>
       </c>
@@ -1141,7 +1197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
@@ -1149,7 +1205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
         <v>52</v>
       </c>
@@ -1157,7 +1213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
         <v>53</v>
       </c>
@@ -1165,7 +1221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
         <v>54</v>
       </c>
@@ -1173,7 +1229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
         <v>55</v>
       </c>
@@ -1181,7 +1237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
         <v>56</v>
       </c>
@@ -1189,7 +1245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
         <v>57</v>
       </c>
@@ -1197,7 +1253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
         <v>58</v>
       </c>
@@ -1205,7 +1261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
         <v>59</v>
       </c>
@@ -1213,7 +1269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
         <v>60</v>
       </c>
@@ -1221,7 +1277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
         <v>61</v>
       </c>
@@ -1229,7 +1285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
         <v>62</v>
       </c>
@@ -1237,7 +1293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
         <v>63</v>
       </c>
@@ -1245,7 +1301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
         <v>64</v>
       </c>
@@ -1253,7 +1309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
         <v>65</v>
       </c>
@@ -1261,7 +1317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
         <v>66</v>
       </c>
@@ -1269,15 +1325,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
         <v>68</v>
       </c>
@@ -1285,7 +1341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
         <v>69</v>
       </c>
@@ -1293,7 +1349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
         <v>70</v>
       </c>
@@ -1301,7 +1357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
         <v>71</v>
       </c>
@@ -1309,7 +1365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
         <v>72</v>
       </c>
@@ -1317,7 +1373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
         <v>73</v>
       </c>
@@ -1325,7 +1381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
         <v>74</v>
       </c>
@@ -1333,7 +1389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
         <v>75</v>
       </c>
@@ -1341,7 +1397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
         <v>76</v>
       </c>
@@ -1349,7 +1405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
         <v>77</v>
       </c>
@@ -1357,7 +1413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2">
       <c r="A75" s="4" t="s">
         <v>78</v>
       </c>
@@ -1365,7 +1421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:2">
       <c r="A76" s="4" t="s">
         <v>79</v>
       </c>
@@ -1373,7 +1429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2">
       <c r="A77" s="4" t="s">
         <v>80</v>
       </c>
@@ -1381,7 +1437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
         <v>81</v>
       </c>
@@ -1389,7 +1445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
         <v>82</v>
       </c>
@@ -1397,7 +1453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
         <v>83</v>
       </c>
@@ -1405,7 +1461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2">
       <c r="A81" s="4" t="s">
         <v>84</v>
       </c>
@@ -1413,7 +1469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
         <v>85</v>
       </c>
@@ -1421,7 +1477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
         <v>86</v>
       </c>
@@ -1429,7 +1485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
         <v>87</v>
       </c>
@@ -1437,7 +1493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
         <v>88</v>
       </c>
@@ -1445,7 +1501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
         <v>89</v>
       </c>
@@ -1453,7 +1509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:2">
       <c r="A87" s="4" t="s">
         <v>90</v>
       </c>
@@ -1461,7 +1517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2">
       <c r="A88" s="4" t="s">
         <v>91</v>
       </c>
@@ -1469,7 +1525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:2">
       <c r="A89" s="4" t="s">
         <v>92</v>
       </c>
@@ -1477,7 +1533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:2">
       <c r="A90" s="4" t="s">
         <v>93</v>
       </c>
@@ -1485,7 +1541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:2">
       <c r="A91" s="4" t="s">
         <v>94</v>
       </c>
@@ -1493,7 +1549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2">
       <c r="A92" s="4" t="s">
         <v>95</v>
       </c>
@@ -1501,7 +1557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:2">
       <c r="A93" s="4" t="s">
         <v>96</v>
       </c>
@@ -1509,7 +1565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:2">
       <c r="A94" s="4" t="s">
         <v>97</v>
       </c>
@@ -1517,7 +1573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:2">
       <c r="A95" s="4" t="s">
         <v>98</v>
       </c>
@@ -1525,7 +1581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:2">
       <c r="A96" s="4" t="s">
         <v>99</v>
       </c>
@@ -1533,7 +1589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:2">
       <c r="A97" s="4" t="s">
         <v>100</v>
       </c>
@@ -1541,7 +1597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:2">
       <c r="A98" s="4" t="s">
         <v>101</v>
       </c>
@@ -1549,7 +1605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:2">
       <c r="A99" s="4" t="s">
         <v>102</v>
       </c>
@@ -1557,7 +1613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:2">
       <c r="A100" s="4" t="s">
         <v>103</v>
       </c>
@@ -1565,7 +1621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:2">
       <c r="A101" s="4" t="s">
         <v>104</v>
       </c>
@@ -1573,7 +1629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:2">
       <c r="A102" s="4" t="s">
         <v>105</v>
       </c>
@@ -1581,7 +1637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:2">
       <c r="A103" s="4" t="s">
         <v>106</v>
       </c>
@@ -1589,7 +1645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:2">
       <c r="A104" s="4" t="s">
         <v>107</v>
       </c>
@@ -1597,7 +1653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:2">
       <c r="A105" s="4" t="s">
         <v>108</v>
       </c>
@@ -1605,7 +1661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:2">
       <c r="A106" s="4" t="s">
         <v>109</v>
       </c>
@@ -1613,15 +1669,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:2">
       <c r="A107" s="4" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:2">
       <c r="A108" s="4" t="s">
         <v>111</v>
       </c>
@@ -1629,7 +1685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:2">
       <c r="A109" s="4" t="s">
         <v>112</v>
       </c>
@@ -1637,7 +1693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:2">
       <c r="A110" s="4" t="s">
         <v>113</v>
       </c>
@@ -1645,7 +1701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:2">
       <c r="A111" s="4" t="s">
         <v>114</v>
       </c>
@@ -1653,7 +1709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:2">
       <c r="A112" s="4" t="s">
         <v>115</v>
       </c>
@@ -1661,7 +1717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:2">
       <c r="A113" s="4" t="s">
         <v>116</v>
       </c>
@@ -1669,7 +1725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:2">
       <c r="A114" s="4" t="s">
         <v>117</v>
       </c>
@@ -1677,7 +1733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:2">
       <c r="A115" s="4" t="s">
         <v>118</v>
       </c>
@@ -1685,7 +1741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:2">
       <c r="A116" s="4" t="s">
         <v>119</v>
       </c>
@@ -1695,142 +1751,143 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="A6"/>
-    <hyperlink r:id="rId6" ref="A7"/>
-    <hyperlink r:id="rId7" ref="A8"/>
-    <hyperlink r:id="rId8" ref="A9"/>
-    <hyperlink r:id="rId9" ref="A10"/>
-    <hyperlink r:id="rId10" ref="A11"/>
-    <hyperlink r:id="rId11" ref="A12"/>
-    <hyperlink r:id="rId12" ref="A13"/>
-    <hyperlink r:id="rId13" ref="A14"/>
-    <hyperlink r:id="rId14" ref="A15"/>
-    <hyperlink r:id="rId15" ref="A16"/>
-    <hyperlink r:id="rId16" ref="A17"/>
-    <hyperlink r:id="rId17" ref="A18"/>
-    <hyperlink r:id="rId18" ref="A19"/>
-    <hyperlink r:id="rId19" ref="A20"/>
-    <hyperlink r:id="rId20" ref="A21"/>
-    <hyperlink r:id="rId21" ref="A22"/>
-    <hyperlink r:id="rId22" ref="A23"/>
-    <hyperlink r:id="rId23" ref="A24"/>
-    <hyperlink r:id="rId24" ref="A25"/>
-    <hyperlink r:id="rId25" ref="A26"/>
-    <hyperlink r:id="rId26" ref="A27"/>
-    <hyperlink r:id="rId27" ref="A28"/>
-    <hyperlink r:id="rId28" ref="A29"/>
-    <hyperlink r:id="rId29" ref="A30"/>
-    <hyperlink r:id="rId30" ref="A31"/>
-    <hyperlink r:id="rId31" ref="A32"/>
-    <hyperlink r:id="rId32" ref="A33"/>
-    <hyperlink r:id="rId33" ref="A34"/>
-    <hyperlink r:id="rId34" ref="A35"/>
-    <hyperlink r:id="rId35" ref="A36"/>
-    <hyperlink r:id="rId36" ref="A37"/>
-    <hyperlink r:id="rId37" ref="A38"/>
-    <hyperlink r:id="rId38" ref="A39"/>
-    <hyperlink r:id="rId39" ref="A40"/>
-    <hyperlink r:id="rId40" ref="A41"/>
-    <hyperlink r:id="rId41" ref="A42"/>
-    <hyperlink r:id="rId42" ref="A43"/>
-    <hyperlink r:id="rId43" ref="A44"/>
-    <hyperlink r:id="rId44" ref="A45"/>
-    <hyperlink r:id="rId45" ref="A46"/>
-    <hyperlink r:id="rId46" ref="A47"/>
-    <hyperlink r:id="rId47" ref="A48"/>
-    <hyperlink r:id="rId48" ref="A49"/>
-    <hyperlink r:id="rId49" ref="A50"/>
-    <hyperlink r:id="rId50" ref="A51"/>
-    <hyperlink r:id="rId51" ref="A52"/>
-    <hyperlink r:id="rId52" ref="A53"/>
-    <hyperlink r:id="rId53" ref="A54"/>
-    <hyperlink r:id="rId54" ref="A55"/>
-    <hyperlink r:id="rId55" ref="A56"/>
-    <hyperlink r:id="rId56" ref="A57"/>
-    <hyperlink r:id="rId57" ref="A58"/>
-    <hyperlink r:id="rId58" ref="A59"/>
-    <hyperlink r:id="rId59" ref="A60"/>
-    <hyperlink r:id="rId60" ref="A61"/>
-    <hyperlink r:id="rId61" ref="A62"/>
-    <hyperlink r:id="rId62" ref="A63"/>
-    <hyperlink r:id="rId63" ref="A64"/>
-    <hyperlink r:id="rId64" ref="A65"/>
-    <hyperlink r:id="rId65" ref="A66"/>
-    <hyperlink r:id="rId66" ref="A67"/>
-    <hyperlink r:id="rId67" ref="A68"/>
-    <hyperlink r:id="rId68" ref="A69"/>
-    <hyperlink r:id="rId69" ref="A70"/>
-    <hyperlink r:id="rId70" ref="A71"/>
-    <hyperlink r:id="rId71" ref="A72"/>
-    <hyperlink r:id="rId72" ref="A73"/>
-    <hyperlink r:id="rId73" ref="A74"/>
-    <hyperlink r:id="rId74" ref="A75"/>
-    <hyperlink r:id="rId75" ref="A76"/>
-    <hyperlink r:id="rId76" ref="A77"/>
-    <hyperlink r:id="rId77" ref="A78"/>
-    <hyperlink r:id="rId78" ref="A79"/>
-    <hyperlink r:id="rId79" ref="A80"/>
-    <hyperlink r:id="rId80" ref="A81"/>
-    <hyperlink r:id="rId81" ref="A82"/>
-    <hyperlink r:id="rId82" ref="A83"/>
-    <hyperlink r:id="rId83" ref="A84"/>
-    <hyperlink r:id="rId84" ref="A85"/>
-    <hyperlink r:id="rId85" ref="A86"/>
-    <hyperlink r:id="rId86" ref="A87"/>
-    <hyperlink r:id="rId87" ref="A88"/>
-    <hyperlink r:id="rId88" ref="A89"/>
-    <hyperlink r:id="rId89" ref="A90"/>
-    <hyperlink r:id="rId90" ref="A91"/>
-    <hyperlink r:id="rId91" ref="A92"/>
-    <hyperlink r:id="rId92" ref="A93"/>
-    <hyperlink r:id="rId93" ref="A94"/>
-    <hyperlink r:id="rId94" ref="A95"/>
-    <hyperlink r:id="rId95" ref="A96"/>
-    <hyperlink r:id="rId96" ref="A97"/>
-    <hyperlink r:id="rId97" ref="A98"/>
-    <hyperlink r:id="rId98" ref="A99"/>
-    <hyperlink r:id="rId99" ref="A100"/>
-    <hyperlink r:id="rId100" ref="A101"/>
-    <hyperlink r:id="rId101" ref="A102"/>
-    <hyperlink r:id="rId102" ref="A103"/>
-    <hyperlink r:id="rId103" ref="A104"/>
-    <hyperlink r:id="rId104" ref="A105"/>
-    <hyperlink r:id="rId105" ref="A106"/>
-    <hyperlink r:id="rId106" ref="A107"/>
-    <hyperlink r:id="rId107" ref="A108"/>
-    <hyperlink r:id="rId108" ref="A109"/>
-    <hyperlink r:id="rId109" ref="A110"/>
-    <hyperlink r:id="rId110" ref="A111"/>
-    <hyperlink r:id="rId111" ref="A112"/>
-    <hyperlink r:id="rId112" ref="A113"/>
-    <hyperlink r:id="rId113" ref="A114"/>
-    <hyperlink r:id="rId114" ref="A115"/>
-    <hyperlink r:id="rId115" ref="A116"/>
+    <hyperlink ref="A2" r:id="rId1" display="[ARCHIVED] Create: Design n' Decor" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A44" r:id="rId43" display="Create: Curios Jetpack [Forge/Fabric]" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="A62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A64" r:id="rId63" display="Create: Ironworks [Forge/Fabric]" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="A68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="A70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="A72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="A74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="A76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="A77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="A78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="A79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="A80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="A81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="A82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="A83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="A84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="A85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="A86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="A87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="A88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="A89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="A90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="A91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="A92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="A93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="A94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="A95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="A96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="A97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="A98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="A99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="A100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="A101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="A102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="A103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="A104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="A105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="A106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="A107" r:id="rId106" display="Petrol's Parts (Create add-on)" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="A108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="A109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="A110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="A111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="A112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="A113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="A114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="A115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="A116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
   </hyperlinks>
-  <drawing r:id="rId116"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.25"/>
-    <col customWidth="1" min="2" max="2" width="14.38"/>
-    <col customWidth="1" min="3" max="3" width="51.25"/>
+    <col min="1" max="1" width="33.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="51.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
         <v>120</v>
       </c>
@@ -1842,7 +1899,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1856,7 +1913,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1864,7 +1921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1875,7 +1932,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1886,7 +1943,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1897,7 +1954,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1905,7 +1962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1917,7 +1974,7 @@
         <v>17 Mods that were tested work with Create 6.0.x on 1.21.1</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1929,7 +1986,7 @@
         <v>88 Mods that were tested DOSEN'T work with Create 6.0.x on 1.21.1</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -1937,7 +1994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -1945,7 +2002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1954,7 +2011,7 @@
       </c>
       <c r="C12" s="14"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -1962,7 +2019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -1970,7 +2027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
@@ -1978,7 +2035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -1986,7 +2043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -1994,7 +2051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
@@ -2002,7 +2059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -2011,7 +2068,7 @@
       </c>
       <c r="C19" s="14"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
@@ -2019,7 +2076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
@@ -2027,7 +2084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -2035,7 +2092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
@@ -2043,7 +2100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
@@ -2052,7 +2109,7 @@
       </c>
       <c r="C24" s="14"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
@@ -2060,7 +2117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
@@ -2069,7 +2126,7 @@
       </c>
       <c r="C26" s="14"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
@@ -2077,7 +2134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -2085,7 +2142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3">
       <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
@@ -2093,7 +2150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
@@ -2101,7 +2158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
@@ -2110,7 +2167,7 @@
       </c>
       <c r="C31" s="14"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
         <v>33</v>
       </c>
@@ -2118,7 +2175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
@@ -2126,7 +2183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
@@ -2134,7 +2191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
         <v>36</v>
       </c>
@@ -2142,7 +2199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
@@ -2151,7 +2208,7 @@
       </c>
       <c r="C36" s="14"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3">
       <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
@@ -2159,7 +2216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
@@ -2167,7 +2224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3">
       <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
@@ -2175,7 +2232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3">
       <c r="A40" s="4" t="s">
         <v>41</v>
       </c>
@@ -2183,7 +2240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3">
       <c r="A41" s="4" t="s">
         <v>42</v>
       </c>
@@ -2191,7 +2248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3">
       <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
@@ -2199,7 +2256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3">
       <c r="A43" s="4" t="s">
         <v>44</v>
       </c>
@@ -2208,7 +2265,7 @@
       </c>
       <c r="C43" s="14"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3">
       <c r="A44" s="4" t="s">
         <v>46</v>
       </c>
@@ -2216,7 +2273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3">
       <c r="A45" s="4" t="s">
         <v>47</v>
       </c>
@@ -2224,7 +2281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3">
       <c r="A46" s="4" t="s">
         <v>48</v>
       </c>
@@ -2232,7 +2289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3">
       <c r="A47" s="4" t="s">
         <v>49</v>
       </c>
@@ -2240,7 +2297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3">
       <c r="A48" s="4" t="s">
         <v>50</v>
       </c>
@@ -2248,7 +2305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3">
       <c r="A49" s="4" t="s">
         <v>51</v>
       </c>
@@ -2257,7 +2314,7 @@
       </c>
       <c r="C49" s="14"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3">
       <c r="A50" s="4" t="s">
         <v>52</v>
       </c>
@@ -2265,7 +2322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3">
       <c r="A51" s="4" t="s">
         <v>53</v>
       </c>
@@ -2273,7 +2330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3">
       <c r="A52" s="4" t="s">
         <v>54</v>
       </c>
@@ -2282,7 +2339,7 @@
       </c>
       <c r="C52" s="14"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
         <v>55</v>
       </c>
@@ -2290,7 +2347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
         <v>56</v>
       </c>
@@ -2299,7 +2356,7 @@
       </c>
       <c r="C54" s="14"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3">
       <c r="A55" s="4" t="s">
         <v>57</v>
       </c>
@@ -2307,7 +2364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3">
       <c r="A56" s="4" t="s">
         <v>58</v>
       </c>
@@ -2315,7 +2372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3">
       <c r="A57" s="4" t="s">
         <v>59</v>
       </c>
@@ -2323,7 +2380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3">
       <c r="A58" s="4" t="s">
         <v>60</v>
       </c>
@@ -2332,7 +2389,7 @@
       </c>
       <c r="C58" s="14"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3">
       <c r="A59" s="4" t="s">
         <v>61</v>
       </c>
@@ -2340,7 +2397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3">
       <c r="A60" s="4" t="s">
         <v>62</v>
       </c>
@@ -2348,7 +2405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3">
       <c r="A61" s="4" t="s">
         <v>63</v>
       </c>
@@ -2356,7 +2413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3">
       <c r="A62" s="4" t="s">
         <v>64</v>
       </c>
@@ -2364,7 +2421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3">
       <c r="A63" s="4" t="s">
         <v>65</v>
       </c>
@@ -2372,7 +2429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3">
       <c r="A64" s="4" t="s">
         <v>66</v>
       </c>
@@ -2380,7 +2437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3">
       <c r="A65" s="4" t="s">
         <v>67</v>
       </c>
@@ -2388,7 +2445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3">
       <c r="A66" s="4" t="s">
         <v>68</v>
       </c>
@@ -2396,7 +2453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3">
       <c r="A67" s="4" t="s">
         <v>69</v>
       </c>
@@ -2404,7 +2461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3">
       <c r="A68" s="4" t="s">
         <v>70</v>
       </c>
@@ -2412,7 +2469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3">
       <c r="A69" s="4" t="s">
         <v>71</v>
       </c>
@@ -2420,7 +2477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3">
       <c r="A70" s="4" t="s">
         <v>71</v>
       </c>
@@ -2428,7 +2485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3">
       <c r="A71" s="4" t="s">
         <v>72</v>
       </c>
@@ -2437,7 +2494,7 @@
       </c>
       <c r="C71" s="14"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3">
       <c r="A72" s="4" t="s">
         <v>73</v>
       </c>
@@ -2446,7 +2503,7 @@
       </c>
       <c r="C72" s="15"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3">
       <c r="A73" s="4" t="s">
         <v>74</v>
       </c>
@@ -2454,7 +2511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3">
       <c r="A74" s="4" t="s">
         <v>75</v>
       </c>
@@ -2462,7 +2519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3">
       <c r="A75" s="4" t="s">
         <v>76</v>
       </c>
@@ -2470,7 +2527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3">
       <c r="A76" s="4" t="s">
         <v>77</v>
       </c>
@@ -2478,7 +2535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3">
       <c r="A77" s="4" t="s">
         <v>78</v>
       </c>
@@ -2486,7 +2543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3">
       <c r="A78" s="4" t="s">
         <v>79</v>
       </c>
@@ -2494,7 +2551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3">
       <c r="A79" s="4" t="s">
         <v>80</v>
       </c>
@@ -2503,7 +2560,7 @@
       </c>
       <c r="C79" s="14"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3">
       <c r="A80" s="4" t="s">
         <v>81</v>
       </c>
@@ -2512,7 +2569,7 @@
       </c>
       <c r="C80" s="14"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3">
       <c r="A81" s="4" t="s">
         <v>82</v>
       </c>
@@ -2521,7 +2578,7 @@
       </c>
       <c r="C81" s="14"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3">
       <c r="A82" s="4" t="s">
         <v>83</v>
       </c>
@@ -2530,7 +2587,7 @@
       </c>
       <c r="C82" s="14"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3">
       <c r="A83" s="4" t="s">
         <v>84</v>
       </c>
@@ -2538,7 +2595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3">
       <c r="A84" s="4" t="s">
         <v>85</v>
       </c>
@@ -2546,7 +2603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3">
       <c r="A85" s="4" t="s">
         <v>86</v>
       </c>
@@ -2554,7 +2611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3">
       <c r="A86" s="4" t="s">
         <v>87</v>
       </c>
@@ -2562,7 +2619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3">
       <c r="A87" s="4" t="s">
         <v>88</v>
       </c>
@@ -2571,7 +2628,7 @@
       </c>
       <c r="C87" s="14"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:3">
       <c r="A88" s="4" t="s">
         <v>89</v>
       </c>
@@ -2580,7 +2637,7 @@
       </c>
       <c r="C88" s="14"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3">
       <c r="A89" s="4" t="s">
         <v>90</v>
       </c>
@@ -2588,7 +2645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:3">
       <c r="A90" s="4" t="s">
         <v>91</v>
       </c>
@@ -2596,7 +2653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3">
       <c r="A91" s="4" t="s">
         <v>92</v>
       </c>
@@ -2604,7 +2661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3">
       <c r="A92" s="4" t="s">
         <v>93</v>
       </c>
@@ -2612,7 +2669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3">
       <c r="A93" s="4" t="s">
         <v>94</v>
       </c>
@@ -2620,7 +2677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3">
       <c r="A94" s="4" t="s">
         <v>95</v>
       </c>
@@ -2628,7 +2685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:3">
       <c r="A95" s="4" t="s">
         <v>96</v>
       </c>
@@ -2636,7 +2693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3">
       <c r="A96" s="4" t="s">
         <v>97</v>
       </c>
@@ -2644,7 +2701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3">
       <c r="A97" s="4" t="s">
         <v>98</v>
       </c>
@@ -2652,7 +2709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:3">
       <c r="A98" s="4" t="s">
         <v>99</v>
       </c>
@@ -2660,7 +2717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3">
       <c r="A99" s="4" t="s">
         <v>100</v>
       </c>
@@ -2668,7 +2725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:3">
       <c r="A100" s="4" t="s">
         <v>101</v>
       </c>
@@ -2676,7 +2733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3">
       <c r="A101" s="4" t="s">
         <v>102</v>
       </c>
@@ -2684,7 +2741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:3">
       <c r="A102" s="4" t="s">
         <v>103</v>
       </c>
@@ -2692,7 +2749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:3">
       <c r="A103" s="4" t="s">
         <v>104</v>
       </c>
@@ -2700,7 +2757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:3">
       <c r="A104" s="4" t="s">
         <v>105</v>
       </c>
@@ -2708,7 +2765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:3">
       <c r="A105" s="4" t="s">
         <v>106</v>
       </c>
@@ -2716,7 +2773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:3">
       <c r="A106" s="4" t="s">
         <v>107</v>
       </c>
@@ -2725,7 +2782,7 @@
       </c>
       <c r="C106" s="14"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:3">
       <c r="A107" s="4" t="s">
         <v>108</v>
       </c>
@@ -2733,7 +2790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:3">
       <c r="A108" s="4" t="s">
         <v>110</v>
       </c>
@@ -2741,7 +2798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:3">
       <c r="A109" s="4" t="s">
         <v>111</v>
       </c>
@@ -2749,7 +2806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:3">
       <c r="A110" s="4" t="s">
         <v>112</v>
       </c>
@@ -2757,7 +2814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:3">
       <c r="A111" s="4" t="s">
         <v>113</v>
       </c>
@@ -2765,7 +2822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:3">
       <c r="A112" s="4" t="s">
         <v>114</v>
       </c>
@@ -2773,7 +2830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:2">
       <c r="A113" s="4" t="s">
         <v>115</v>
       </c>
@@ -2781,7 +2838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:2">
       <c r="A114" s="4" t="s">
         <v>116</v>
       </c>
@@ -2789,7 +2846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:2">
       <c r="A115" s="4" t="s">
         <v>117</v>
       </c>
@@ -2797,7 +2854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:2">
       <c r="A116" s="4" t="s">
         <v>118</v>
       </c>
@@ -2807,122 +2864,122 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="CLICK HERE TO GO INTO 1.20.1" location="'Create Addons 1.20.1'!A1" ref="D2"/>
-    <hyperlink r:id="rId1" ref="A3"/>
-    <hyperlink r:id="rId2" ref="A4"/>
-    <hyperlink r:id="rId3" ref="A5"/>
-    <hyperlink r:id="rId4" ref="A6"/>
-    <hyperlink r:id="rId5" ref="A7"/>
-    <hyperlink r:id="rId6" ref="A8"/>
-    <hyperlink r:id="rId7" ref="A9"/>
-    <hyperlink r:id="rId8" ref="A10"/>
-    <hyperlink r:id="rId9" ref="A11"/>
-    <hyperlink r:id="rId10" ref="A12"/>
-    <hyperlink r:id="rId11" ref="A13"/>
-    <hyperlink r:id="rId12" ref="A14"/>
-    <hyperlink r:id="rId13" ref="A15"/>
-    <hyperlink r:id="rId14" ref="A16"/>
-    <hyperlink r:id="rId15" ref="A17"/>
-    <hyperlink r:id="rId16" ref="A18"/>
-    <hyperlink r:id="rId17" ref="A19"/>
-    <hyperlink r:id="rId18" ref="A20"/>
-    <hyperlink r:id="rId19" ref="A21"/>
-    <hyperlink r:id="rId20" ref="A22"/>
-    <hyperlink r:id="rId21" ref="A23"/>
-    <hyperlink r:id="rId22" ref="A24"/>
-    <hyperlink r:id="rId23" ref="A25"/>
-    <hyperlink r:id="rId24" ref="A26"/>
-    <hyperlink r:id="rId25" ref="A27"/>
-    <hyperlink r:id="rId26" ref="A28"/>
-    <hyperlink r:id="rId27" ref="A29"/>
-    <hyperlink r:id="rId28" ref="A30"/>
-    <hyperlink r:id="rId29" ref="A31"/>
-    <hyperlink r:id="rId30" ref="A32"/>
-    <hyperlink r:id="rId31" ref="A33"/>
-    <hyperlink r:id="rId32" ref="A34"/>
-    <hyperlink r:id="rId33" ref="A35"/>
-    <hyperlink r:id="rId34" ref="A36"/>
-    <hyperlink r:id="rId35" ref="A37"/>
-    <hyperlink r:id="rId36" ref="A38"/>
-    <hyperlink r:id="rId37" ref="A39"/>
-    <hyperlink r:id="rId38" ref="A40"/>
-    <hyperlink r:id="rId39" ref="A41"/>
-    <hyperlink r:id="rId40" ref="A42"/>
-    <hyperlink r:id="rId41" ref="A43"/>
-    <hyperlink r:id="rId42" ref="A44"/>
-    <hyperlink r:id="rId43" ref="A45"/>
-    <hyperlink r:id="rId44" ref="A46"/>
-    <hyperlink r:id="rId45" ref="A47"/>
-    <hyperlink r:id="rId46" ref="A48"/>
-    <hyperlink r:id="rId47" ref="A49"/>
-    <hyperlink r:id="rId48" ref="A50"/>
-    <hyperlink r:id="rId49" ref="A51"/>
-    <hyperlink r:id="rId50" ref="A52"/>
-    <hyperlink r:id="rId51" ref="A53"/>
-    <hyperlink r:id="rId52" ref="A54"/>
-    <hyperlink r:id="rId53" ref="A55"/>
-    <hyperlink r:id="rId54" ref="A56"/>
-    <hyperlink r:id="rId55" ref="A57"/>
-    <hyperlink r:id="rId56" ref="A58"/>
-    <hyperlink r:id="rId57" ref="A59"/>
-    <hyperlink r:id="rId58" ref="A60"/>
-    <hyperlink r:id="rId59" ref="A61"/>
-    <hyperlink r:id="rId60" ref="A62"/>
-    <hyperlink r:id="rId61" ref="A63"/>
-    <hyperlink r:id="rId62" ref="A64"/>
-    <hyperlink r:id="rId63" ref="A65"/>
-    <hyperlink r:id="rId64" ref="A66"/>
-    <hyperlink r:id="rId65" ref="A67"/>
-    <hyperlink r:id="rId66" ref="A68"/>
-    <hyperlink r:id="rId67" ref="A69"/>
-    <hyperlink r:id="rId68" ref="A70"/>
-    <hyperlink r:id="rId69" ref="A71"/>
-    <hyperlink r:id="rId70" ref="A72"/>
-    <hyperlink r:id="rId71" ref="A73"/>
-    <hyperlink r:id="rId72" ref="A74"/>
-    <hyperlink r:id="rId73" ref="A75"/>
-    <hyperlink r:id="rId74" ref="A76"/>
-    <hyperlink r:id="rId75" ref="A77"/>
-    <hyperlink r:id="rId76" ref="A78"/>
-    <hyperlink r:id="rId77" ref="A79"/>
-    <hyperlink r:id="rId78" ref="A80"/>
-    <hyperlink r:id="rId79" ref="A81"/>
-    <hyperlink r:id="rId80" ref="A82"/>
-    <hyperlink r:id="rId81" ref="A83"/>
-    <hyperlink r:id="rId82" ref="A84"/>
-    <hyperlink r:id="rId83" ref="A85"/>
-    <hyperlink r:id="rId84" ref="A86"/>
-    <hyperlink r:id="rId85" ref="A87"/>
-    <hyperlink r:id="rId86" ref="A88"/>
-    <hyperlink r:id="rId87" ref="A89"/>
-    <hyperlink r:id="rId88" ref="A90"/>
-    <hyperlink r:id="rId89" ref="A91"/>
-    <hyperlink r:id="rId90" ref="A92"/>
-    <hyperlink r:id="rId91" ref="A93"/>
-    <hyperlink r:id="rId92" ref="A94"/>
-    <hyperlink r:id="rId93" ref="A95"/>
-    <hyperlink r:id="rId94" ref="A96"/>
-    <hyperlink r:id="rId95" ref="A97"/>
-    <hyperlink r:id="rId96" ref="A98"/>
-    <hyperlink r:id="rId97" ref="A99"/>
-    <hyperlink r:id="rId98" ref="A100"/>
-    <hyperlink r:id="rId99" ref="A101"/>
-    <hyperlink r:id="rId100" ref="A102"/>
-    <hyperlink r:id="rId101" ref="A103"/>
-    <hyperlink r:id="rId102" ref="A104"/>
-    <hyperlink r:id="rId103" ref="A105"/>
-    <hyperlink r:id="rId104" ref="A106"/>
-    <hyperlink r:id="rId105" ref="A107"/>
-    <hyperlink r:id="rId106" ref="A108"/>
-    <hyperlink r:id="rId107" ref="A109"/>
-    <hyperlink r:id="rId108" ref="A110"/>
-    <hyperlink r:id="rId109" ref="A111"/>
-    <hyperlink r:id="rId110" ref="A112"/>
-    <hyperlink r:id="rId111" ref="A113"/>
-    <hyperlink r:id="rId112" ref="A114"/>
-    <hyperlink r:id="rId113" ref="A115"/>
-    <hyperlink r:id="rId114" ref="A116"/>
+    <hyperlink ref="D2" location="'Create Addons 1.20.1'!A1" display="CLICK HERE TO GO INTO 1.20.1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="A26" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="A27" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="A28" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="A29" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="A30" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="A31" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="A32" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="A33" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="A34" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="A35" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="A36" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="A37" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="A38" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="A39" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="A40" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="A41" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="A42" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="A43" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="A44" r:id="rId42" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="A45" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="A46" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="A47" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="A48" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="A49" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="A50" r:id="rId48" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="A51" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="A52" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="A53" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="A54" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="A55" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="A56" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="A57" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="A58" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="A59" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="A60" r:id="rId58" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="A61" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="A62" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="A63" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="A64" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="A65" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="A66" r:id="rId64" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="A67" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="A68" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="A69" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="A70" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="A71" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="A72" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="A73" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="A74" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="A75" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="A76" r:id="rId74" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="A77" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="A78" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="A79" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="A80" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="A81" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="A82" r:id="rId80" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="A83" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="A84" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="A85" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="A86" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="A87" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="A88" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="A89" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="A90" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="A91" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="A92" r:id="rId90" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="A93" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="A94" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="A95" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="A96" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="A97" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="A98" r:id="rId96" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="A99" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="A100" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="A101" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="A102" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="A103" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="A104" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="A105" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="A106" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="A107" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="A108" r:id="rId106" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="A109" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="A110" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="A111" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="A112" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="A113" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="A114" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="A115" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="A116" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
   </hyperlinks>
-  <drawing r:id="rId115"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>